--- a/Controle de HH.xlsx
+++ b/Controle de HH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaod\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\puc\pmv-si-2025-1-pe3-t2-grupo-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AFE2C1-1698-4DBC-A681-2427A409090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC395BCC-1DF1-486F-B901-40F4F7B7934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="49">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>Redação dos itens 3.4.3 e 3.4.4</t>
+  </si>
+  <si>
+    <t>Redação dos itens 4.1, 4.2, 4.3</t>
   </si>
 </sst>
 </file>
@@ -801,6 +804,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,20 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,12 +846,119 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2977,15 +3088,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2993,15 +3104,15 @@
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3009,15 +3120,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3025,15 +3136,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3041,15 +3152,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -3071,15 +3182,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3104,15 +3215,15 @@
     </row>
     <row r="9" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3122,15 +3233,15 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3140,15 +3251,15 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3158,15 +3269,15 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3176,15 +3287,15 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3194,15 +3305,15 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3212,15 +3323,15 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3529,7 +3640,7 @@
         <f>'Etapa #1'!E35</f>
         <v>2.5</v>
       </c>
-      <c r="D38" s="49">
+      <c r="D38" s="30">
         <f>'Etapa #2'!E75</f>
         <v>2</v>
       </c>
@@ -3551,7 +3662,7 @@
         <f>'Etapa #1'!E36</f>
         <v>4</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D39" s="30">
         <f>'Etapa #2'!E76</f>
         <v>0</v>
       </c>
@@ -3573,7 +3684,7 @@
         <f>'Etapa #1'!E37</f>
         <v>5</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="30">
         <f>'Etapa #2'!E77</f>
         <v>2</v>
       </c>
@@ -5307,6 +5418,11 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -5315,11 +5431,6 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <drawing r:id="rId1"/>
@@ -5356,13 +5467,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -5370,13 +5481,13 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="10" t="e">
         <f t="shared" ref="G2:G22" si="0">G1+1</f>
         <v>#REF!</v>
@@ -5384,13 +5495,13 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -5398,13 +5509,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -5412,13 +5523,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -5438,14 +5549,14 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="str">
+      <c r="B7" s="35" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -5465,12 +5576,12 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
@@ -5859,32 +5970,32 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="46" t="str">
+      <c r="B35" s="47" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B10,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>2.5</v>
@@ -5892,12 +6003,12 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="46" t="str">
+      <c r="B36" s="47" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B11,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>4</v>
@@ -5905,12 +6016,12 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="46" t="str">
+      <c r="B37" s="47" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B12,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>5</v>
@@ -5918,12 +6029,12 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="46" t="str">
+      <c r="B38" s="47" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B13,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>2.5</v>
@@ -5931,12 +6042,12 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="47" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B14,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>3.5</v>
@@ -5944,12 +6055,12 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="46" t="str">
+      <c r="B40" s="47" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B15,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>3.5</v>
@@ -7133,6 +7244,12 @@
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
@@ -7142,48 +7259,42 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D30">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$35),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$36),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="69" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$37),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$38),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="67" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$39),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="54" priority="6">
+    <cfRule type="containsBlanks" dxfId="66" priority="6">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="8">
+    <cfRule type="expression" dxfId="65" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$35),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="64" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$36),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="10">
+    <cfRule type="expression" dxfId="63" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$37),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="11">
+    <cfRule type="expression" dxfId="62" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$38),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="12">
+    <cfRule type="expression" dxfId="61" priority="12">
       <formula>NOT(ISERROR(SEARCH(($B$39),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="48" priority="13">
+    <cfRule type="containsBlanks" dxfId="60" priority="13">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7199,9 +7310,9 @@
   </sheetPr>
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7218,13 +7329,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -7232,13 +7343,13 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="10" t="e">
         <f t="shared" ref="G2:G22" si="0">G1+1</f>
         <v>#REF!</v>
@@ -7246,13 +7357,13 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7260,13 +7371,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7274,13 +7385,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7300,14 +7411,14 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="str">
+      <c r="B7" s="35" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7327,12 +7438,12 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
@@ -8186,32 +8297,32 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="47" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B10,E$11:E$61)</f>
         <v>2</v>
@@ -8219,12 +8330,12 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="47" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B11,E$11:E$61)</f>
         <v>0</v>
@@ -8232,12 +8343,12 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="46" t="str">
+      <c r="B77" s="47" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B12,E$11:E$61)</f>
         <v>2</v>
@@ -8245,12 +8356,12 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="46" t="str">
+      <c r="B78" s="47" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B13,E$11:E$61)</f>
         <v>2</v>
@@ -8258,12 +8369,12 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="46" t="str">
+      <c r="B79" s="47" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B14,E$11:E$61)</f>
         <v>3</v>
@@ -8271,12 +8382,12 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="46" t="str">
+      <c r="B80" s="47" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B15,E$11:E$61)</f>
         <v>2</v>
@@ -9460,6 +9571,11 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:D78"/>
@@ -9470,47 +9586,42 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D70">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="57" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="42" priority="6">
+    <cfRule type="containsBlanks" dxfId="54" priority="6">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="51" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="10">
+    <cfRule type="expression" dxfId="50" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="11">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="36" priority="12">
+    <cfRule type="containsBlanks" dxfId="48" priority="12">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9548,9 +9659,9 @@
   </sheetPr>
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9567,13 +9678,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9581,13 +9692,13 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="10" t="e">
         <f t="shared" ref="G2:G22" si="0">G1+1</f>
         <v>#REF!</v>
@@ -9595,13 +9706,13 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -9609,13 +9720,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -9623,13 +9734,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -9649,14 +9760,14 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="str">
+      <c r="B7" s="35" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -9676,12 +9787,12 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
@@ -9717,10 +9828,14 @@
       <c r="B11" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="10" t="e">
@@ -9743,10 +9858,14 @@
       <c r="B12" s="13">
         <v>2</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="10" t="e">
@@ -9759,10 +9878,14 @@
       <c r="B13" s="13">
         <v>3</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="10"/>
@@ -9772,10 +9895,14 @@
       <c r="B14" s="13">
         <v>4</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="10"/>
@@ -9785,10 +9912,14 @@
       <c r="B15" s="13">
         <v>5</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="10" t="e">
@@ -10498,7 +10629,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="17">
         <f>SUM(E11:E61)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F71" s="11"/>
     </row>
@@ -10507,7 +10638,7 @@
       <c r="B72" s="7"/>
       <c r="C72" s="7">
         <f>COUNTIFS(C11:C61, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="1"/>
@@ -10515,45 +10646,45 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="47" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B10,E$11:E$61)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="47" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B11,E$11:E$61)</f>
         <v>0</v>
@@ -10561,54 +10692,54 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="46" t="str">
+      <c r="B77" s="47" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B12,E$11:E$61)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="46" t="str">
+      <c r="B78" s="47" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B13,E$11:E$61)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="46" t="str">
+      <c r="B79" s="47" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B14,E$11:E$61)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="46" t="str">
+      <c r="B80" s="47" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B15,E$11:E$61)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" s="11"/>
     </row>
@@ -11790,6 +11921,11 @@
   </sheetData>
   <autoFilter ref="B10:I60" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:D78"/>
@@ -11800,54 +11936,88 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D11:D70">
-    <cfRule type="expression" dxfId="35" priority="1">
+  <conditionalFormatting sqref="D16:D70">
+    <cfRule type="expression" dxfId="47" priority="13">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="14">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="15">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="16">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="17">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(D16))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="42" priority="18">
+      <formula>LEN(TRIM(D16))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="19">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="20">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="21">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="22">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="23">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(D16))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="36" priority="24">
+      <formula>LEN(TRIM(D16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D15">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="6">
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="24" priority="12">
+    <cfRule type="containsBlanks" dxfId="0" priority="12">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11:C70" xr:uid="{272847CA-9369-4E2E-8D41-21DE7589674A}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C16:C70" xr:uid="{272847CA-9369-4E2E-8D41-21DE7589674A}">
       <formula1>$J$1:$J$22</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C11:C15" xr:uid="{84B64C1A-014C-4DB2-9B6C-52B325120928}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -11895,13 +12065,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11909,13 +12079,13 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="10" t="e">
         <f t="shared" ref="G2:G22" si="0">G1+1</f>
         <v>#REF!</v>
@@ -11923,13 +12093,13 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -11937,13 +12107,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -11951,13 +12121,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -11977,14 +12147,14 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="str">
+      <c r="B7" s="35" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -12004,12 +12174,12 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
@@ -12843,32 +13013,32 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="47" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B10,E$11:E$61)</f>
         <v>0</v>
@@ -12876,12 +13046,12 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="47" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B11,E$11:E$61)</f>
         <v>0</v>
@@ -12889,12 +13059,12 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="46" t="str">
+      <c r="B77" s="47" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B12,E$11:E$61)</f>
         <v>0</v>
@@ -12902,12 +13072,12 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="46" t="str">
+      <c r="B78" s="47" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B13,E$11:E$61)</f>
         <v>0</v>
@@ -12915,12 +13085,12 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="46" t="str">
+      <c r="B79" s="47" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B14,E$11:E$61)</f>
         <v>0</v>
@@ -12928,12 +13098,12 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="46" t="str">
+      <c r="B80" s="47" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B15,E$11:E$61)</f>
         <v>0</v>
@@ -14118,6 +14288,11 @@
   </sheetData>
   <autoFilter ref="B10:I60" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:D78"/>
@@ -14128,47 +14303,42 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D70">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="30" priority="6">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="12">
+    <cfRule type="containsBlanks" dxfId="24" priority="12">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14223,13 +14393,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -14237,13 +14407,13 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="10" t="e">
         <f t="shared" ref="G2:G22" si="0">G1+1</f>
         <v>#REF!</v>
@@ -14251,13 +14421,13 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -14265,13 +14435,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -14279,13 +14449,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -14305,14 +14475,14 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="str">
+      <c r="B7" s="35" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -14332,12 +14502,12 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
@@ -15171,32 +15341,32 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="47" t="str">
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B10,E$11:E$61)</f>
         <v>0</v>
@@ -15204,12 +15374,12 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="47" t="str">
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B11,E$11:E$61)</f>
         <v>0</v>
@@ -15217,12 +15387,12 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="46" t="str">
+      <c r="B77" s="47" t="str">
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B12,E$11:E$61)</f>
         <v>0</v>
@@ -15230,12 +15400,12 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="46" t="str">
+      <c r="B78" s="47" t="str">
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B13,E$11:E$61)</f>
         <v>0</v>
@@ -15243,12 +15413,12 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="46" t="str">
+      <c r="B79" s="47" t="str">
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B14,E$11:E$61)</f>
         <v>0</v>
@@ -15256,12 +15426,12 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="46" t="str">
+      <c r="B80" s="47" t="str">
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B15,E$11:E$61)</f>
         <v>0</v>
@@ -16446,6 +16616,11 @@
   </sheetData>
   <autoFilter ref="B10:I60" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:D78"/>
@@ -16456,47 +16631,42 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D70">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="12">
+    <cfRule type="containsBlanks" dxfId="12" priority="12">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Controle de HH.xlsx
+++ b/Controle de HH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\puc\pmv-si-2025-1-pe3-t2-grupo-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC395BCC-1DF1-486F-B901-40F4F7B7934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C769C8FD-457F-4C04-ADBD-8D29D08F619F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>Redação dos itens 4.1, 4.2, 4.3</t>
+  </si>
+  <si>
+    <t>Redação dos cenários de teste</t>
   </si>
 </sst>
 </file>
@@ -805,20 +808,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,6 +826,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,7 +853,385 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="114">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA1A1"/>
+          <bgColor rgb="FFFFA1A1"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3088,15 +3469,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3104,15 +3485,15 @@
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3120,15 +3501,15 @@
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3136,15 +3517,15 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3152,15 +3533,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -3182,15 +3563,15 @@
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3215,15 +3596,15 @@
     </row>
     <row r="9" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3233,15 +3614,15 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3251,15 +3632,15 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3269,15 +3650,15 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3287,15 +3668,15 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3305,15 +3686,15 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3323,15 +3704,15 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -5418,11 +5799,6 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -5431,6 +5807,11 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <drawing r:id="rId1"/>
@@ -5467,13 +5848,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -5481,13 +5862,13 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10" t="e">
         <f t="shared" ref="G2:G22" si="0">G1+1</f>
         <v>#REF!</v>
@@ -5495,13 +5876,13 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -5509,13 +5890,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -5523,13 +5904,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -5549,14 +5930,14 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="35" t="str">
+      <c r="B7" s="45" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -5579,9 +5960,9 @@
       <c r="B9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
@@ -5973,17 +6354,17 @@
       <c r="B33" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="12" t="s">
         <v>13</v>
       </c>
@@ -5994,8 +6375,8 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B10,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>2.5</v>
@@ -6007,8 +6388,8 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B11,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>4</v>
@@ -6020,8 +6401,8 @@
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B12,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>5</v>
@@ -6033,8 +6414,8 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B13,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>2.5</v>
@@ -6046,8 +6427,8 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B14,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>3.5</v>
@@ -6059,8 +6440,8 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
       <c r="E40" s="18">
         <f>SUMIF($D$11:$D$30,'Dados do Projeto'!$B15,E$11:E$30)+SUMIF($D$11:$D$30,"Todos",E$11:E$30)</f>
         <v>3.5</v>
@@ -7244,12 +7625,6 @@
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
@@ -7259,42 +7634,48 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D30">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="113" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$35),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="112" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$36),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="3">
+    <cfRule type="expression" dxfId="111" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$37),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="110" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$38),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="5">
+    <cfRule type="expression" dxfId="109" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$39),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="66" priority="6">
+    <cfRule type="containsBlanks" dxfId="108" priority="6">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="8">
+    <cfRule type="expression" dxfId="107" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$35),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="9">
+    <cfRule type="expression" dxfId="106" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$36),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="10">
+    <cfRule type="expression" dxfId="105" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$37),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="11">
+    <cfRule type="expression" dxfId="104" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$38),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="12">
+    <cfRule type="expression" dxfId="103" priority="12">
       <formula>NOT(ISERROR(SEARCH(($B$39),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="60" priority="13">
+    <cfRule type="containsBlanks" dxfId="102" priority="13">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7329,13 +7710,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -7343,13 +7724,13 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10" t="e">
         <f t="shared" ref="G2:G22" si="0">G1+1</f>
         <v>#REF!</v>
@@ -7357,13 +7738,13 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7371,13 +7752,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7385,13 +7766,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7411,14 +7792,14 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="35" t="str">
+      <c r="B7" s="45" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -7441,9 +7822,9 @@
       <c r="B9" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
@@ -8300,17 +8681,17 @@
       <c r="B73" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="33"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
       <c r="E74" s="12" t="s">
         <v>13</v>
       </c>
@@ -8321,8 +8702,8 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
       <c r="E75" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B10,E$11:E$61)</f>
         <v>2</v>
@@ -8334,8 +8715,8 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
       <c r="E76" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B11,E$11:E$61)</f>
         <v>0</v>
@@ -8347,8 +8728,8 @@
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
       <c r="E77" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B12,E$11:E$61)</f>
         <v>2</v>
@@ -8360,8 +8741,8 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
       <c r="E78" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B13,E$11:E$61)</f>
         <v>2</v>
@@ -8373,8 +8754,8 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
       <c r="E79" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B14,E$11:E$61)</f>
         <v>3</v>
@@ -8386,8 +8767,8 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
       <c r="E80" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B15,E$11:E$61)</f>
         <v>2</v>
@@ -9571,11 +9952,6 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:D78"/>
@@ -9586,42 +9962,47 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D70">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="100" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="99" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="98" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="97" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="54" priority="6">
+    <cfRule type="containsBlanks" dxfId="96" priority="6">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="7">
+    <cfRule type="expression" dxfId="95" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="8">
+    <cfRule type="expression" dxfId="94" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="9">
+    <cfRule type="expression" dxfId="93" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="10">
+    <cfRule type="expression" dxfId="92" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="91" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="48" priority="12">
+    <cfRule type="containsBlanks" dxfId="90" priority="12">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9659,9 +10040,9 @@
   </sheetPr>
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9678,13 +10059,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9692,13 +10073,13 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10" t="e">
         <f t="shared" ref="G2:G22" si="0">G1+1</f>
         <v>#REF!</v>
@@ -9706,13 +10087,13 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -9720,13 +10101,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -9734,13 +10115,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -9760,14 +10141,14 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="35" t="str">
+      <c r="B7" s="45" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -9790,9 +10171,9 @@
       <c r="B9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
@@ -10649,17 +11030,17 @@
       <c r="B73" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="33"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
       <c r="E74" s="12" t="s">
         <v>13</v>
       </c>
@@ -10670,8 +11051,8 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
       <c r="E75" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B10,E$11:E$61)</f>
         <v>2</v>
@@ -10683,8 +11064,8 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
       <c r="E76" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B11,E$11:E$61)</f>
         <v>0</v>
@@ -10696,8 +11077,8 @@
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
       <c r="E77" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B12,E$11:E$61)</f>
         <v>2</v>
@@ -10709,8 +11090,8 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
       <c r="E78" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B13,E$11:E$61)</f>
         <v>2</v>
@@ -10722,8 +11103,8 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
       <c r="E79" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B14,E$11:E$61)</f>
         <v>3</v>
@@ -10735,8 +11116,8 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
       <c r="E80" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B15,E$11:E$61)</f>
         <v>2</v>
@@ -11921,11 +12302,6 @@
   </sheetData>
   <autoFilter ref="B10:I60" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:D78"/>
@@ -11936,81 +12312,70 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
+  <conditionalFormatting sqref="D11:D15">
+    <cfRule type="expression" dxfId="89" priority="1">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="2">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="3">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="4">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="5">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="84" priority="6">
+      <formula>LEN(TRIM(D11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D70">
+    <cfRule type="expression" dxfId="83" priority="7">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="8">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="9">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="10">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="11">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="78" priority="12">
+      <formula>LEN(TRIM(D11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D16:D70">
-    <cfRule type="expression" dxfId="47" priority="13">
+    <cfRule type="expression" dxfId="77" priority="19">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D16))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="14">
+    <cfRule type="expression" dxfId="76" priority="20">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D16))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="15">
+    <cfRule type="expression" dxfId="75" priority="21">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D16))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="16">
+    <cfRule type="expression" dxfId="74" priority="22">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D16))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="17">
+    <cfRule type="expression" dxfId="73" priority="23">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D16))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="42" priority="18">
+    <cfRule type="containsBlanks" dxfId="72" priority="24">
       <formula>LEN(TRIM(D16))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="19">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(D16))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(D16))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="21">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(D16))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="22">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(D16))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="23">
-      <formula>NOT(ISERROR(SEARCH(($B$79),(D16))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="36" priority="24">
-      <formula>LEN(TRIM(D16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D15">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
-      <formula>LEN(TRIM(D11))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="12">
-      <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -12046,9 +12411,9 @@
   </sheetPr>
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12065,13 +12430,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -12079,13 +12444,13 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10" t="e">
         <f t="shared" ref="G2:G22" si="0">G1+1</f>
         <v>#REF!</v>
@@ -12093,13 +12458,13 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -12107,13 +12472,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -12121,13 +12486,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -12147,14 +12512,14 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="35" t="str">
+      <c r="B7" s="45" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -12177,9 +12542,9 @@
       <c r="B9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
@@ -12215,10 +12580,14 @@
       <c r="B11" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="10" t="e">
@@ -12241,10 +12610,14 @@
       <c r="B12" s="13">
         <v>2</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="10" t="e">
@@ -12257,10 +12630,14 @@
       <c r="B13" s="13">
         <v>3</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="10"/>
@@ -12270,10 +12647,14 @@
       <c r="B14" s="13">
         <v>4</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="10"/>
@@ -12283,10 +12664,14 @@
       <c r="B15" s="13">
         <v>5</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="10" t="e">
@@ -12996,7 +13381,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="17">
         <f>SUM(E11:E61)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F71" s="11"/>
     </row>
@@ -13005,7 +13390,7 @@
       <c r="B72" s="7"/>
       <c r="C72" s="7">
         <f>COUNTIFS(C11:C61, "&lt;&gt;"&amp;"")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="1"/>
@@ -13016,17 +13401,17 @@
       <c r="B73" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="33"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
       <c r="E74" s="12" t="s">
         <v>13</v>
       </c>
@@ -13037,11 +13422,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
       <c r="E75" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B10,E$11:E$61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13050,8 +13435,8 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
       <c r="E76" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B11,E$11:E$61)</f>
         <v>0</v>
@@ -13063,11 +13448,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
       <c r="E77" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B12,E$11:E$61)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13076,11 +13461,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
       <c r="E78" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B13,E$11:E$61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13089,11 +13474,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
       <c r="E79" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B14,E$11:E$61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13102,11 +13487,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
       <c r="E80" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B15,E$11:E$61)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" s="11"/>
     </row>
@@ -14288,11 +14673,6 @@
   </sheetData>
   <autoFilter ref="B10:I60" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:D78"/>
@@ -14303,43 +14683,168 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D11:D70">
-    <cfRule type="expression" dxfId="35" priority="1">
+  <conditionalFormatting sqref="D16:D70">
+    <cfRule type="expression" dxfId="71" priority="49">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="50">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="51">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="52">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="53">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(D16))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="66" priority="54">
+      <formula>LEN(TRIM(D16))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="55">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="56">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="57">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="58">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(D16))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="59">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(D16))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="60" priority="60">
+      <formula>LEN(TRIM(D16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="47" priority="37">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="43" priority="41">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="6">
+    <cfRule type="containsBlanks" dxfId="42" priority="42">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="7">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="38" priority="46">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="37" priority="47">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="24" priority="12">
+    <cfRule type="containsBlanks" dxfId="36" priority="48">
       <formula>LEN(TRIM(D11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="35" priority="25">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(D12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="26">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(D12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="27">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(D12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="28">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(D12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(D12))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="30" priority="30">
+      <formula>LEN(TRIM(D12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(D12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="32">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(D12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="33">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(D12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="34">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(D12))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="35">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(D12))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="24" priority="36">
+      <formula>LEN(TRIM(D12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D15">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(D13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(D13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(D13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(D13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(D13))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
+      <formula>LEN(TRIM(D13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D15">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>NOT(ISERROR(SEARCH(($B$75),(D13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>NOT(ISERROR(SEARCH(($B$76),(D13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>NOT(ISERROR(SEARCH(($B$77),(D13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>NOT(ISERROR(SEARCH(($B$78),(D13))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>NOT(ISERROR(SEARCH(($B$79),(D13))))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="0" priority="12">
+      <formula>LEN(TRIM(D13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -14393,13 +14898,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="10" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -14407,13 +14912,13 @@
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="10" t="e">
         <f t="shared" ref="G2:G22" si="0">G1+1</f>
         <v>#REF!</v>
@@ -14421,13 +14926,13 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -14435,13 +14940,13 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -14449,13 +14954,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -14475,14 +14980,14 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="35" t="str">
+      <c r="B7" s="45" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Café com Letras</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -14505,9 +15010,9 @@
       <c r="B9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
@@ -15344,17 +15849,17 @@
       <c r="B73" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="33"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
       <c r="E74" s="12" t="s">
         <v>13</v>
       </c>
@@ -15365,8 +15870,8 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Allan dos Anjos Viana</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
       <c r="E75" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B10,E$11:E$61)</f>
         <v>0</v>
@@ -15378,8 +15883,8 @@
         <f>'Dados do Projeto'!B11</f>
         <v>Danilo Leal Raul</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
       <c r="E76" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B11,E$11:E$61)</f>
         <v>0</v>
@@ -15391,8 +15896,8 @@
         <f>'Dados do Projeto'!B12</f>
         <v>João de Sousa Lourenço</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
       <c r="E77" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B12,E$11:E$61)</f>
         <v>0</v>
@@ -15404,8 +15909,8 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Marco Tulio Crecencio Araujo</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
       <c r="E78" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B13,E$11:E$61)</f>
         <v>0</v>
@@ -15417,8 +15922,8 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Mariana Carvalho Silva Ribeiro</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
       <c r="E79" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B14,E$11:E$61)</f>
         <v>0</v>
@@ -15430,8 +15935,8 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Rodrigo Carvalho Cattoi da Costa</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
       <c r="E80" s="18">
         <f>SUMIF($D$11:$D$61,'Dados do Projeto'!$B15,E$11:E$61)</f>
         <v>0</v>
@@ -16616,11 +17121,6 @@
   </sheetData>
   <autoFilter ref="B10:I60" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:D78"/>
@@ -16631,42 +17131,47 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D70">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="57" priority="3">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="54" priority="6">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>NOT(ISERROR(SEARCH(($B$75),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>NOT(ISERROR(SEARCH(($B$76),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="51" priority="9">
       <formula>NOT(ISERROR(SEARCH(($B$77),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="50" priority="10">
       <formula>NOT(ISERROR(SEARCH(($B$78),(D11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>NOT(ISERROR(SEARCH(($B$79),(D11))))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="12">
+    <cfRule type="containsBlanks" dxfId="48" priority="12">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
